--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_16_18.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_16_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>298902.1581372946</v>
+        <v>296463.6850375476</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -662,7 +662,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>211.6884152741758</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -671,10 +671,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>181.5204656885172</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>41.57692977292595</v>
@@ -707,19 +707,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>26.01291522398499</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -756,7 +756,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247723</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -832,10 +832,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>18.26879610203984</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -871,7 +871,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>251.4885339559507</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -880,10 +880,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,16 +893,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -911,10 +911,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,19 +947,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>119.0033277132842</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>347.5923223052706</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -993,7 +993,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.8172186824772</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1054,25 +1054,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>133.7117411111175</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1111,7 +1111,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>60.86404150922422</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1136,22 +1136,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>242.8528437613041</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,22 +1184,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>282.5226588714428</v>
       </c>
     </row>
     <row r="9">
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1345,10 +1345,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>252.7233649914542</v>
       </c>
       <c r="V10" t="n">
-        <v>157.7822070347172</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819382</v>
+        <v>179.8319801819331</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>153.41647481642</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1540,13 +1540,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1582,10 +1582,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>140.3829797864956</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="15">
@@ -1762,10 +1762,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819382</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>129.1078928223844</v>
+        <v>128.1306638699245</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1774,7 +1774,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1783,7 +1783,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>1.508245380440106e-12</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1850,7 +1850,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2008,19 +2008,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>145.4210480229322</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>53.11937003877822</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>107.4021082756243</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2138,7 +2138,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2239,22 +2239,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>103.8784673763403</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>9.146142788179874</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,7 +2479,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>108.2950343703271</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>185.3892167411514</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2612,13 +2612,13 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784677</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2710,10 +2710,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>110.0177171766883</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2722,16 +2722,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>36.21070476472219</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2840,16 +2840,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695382</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2858,7 +2858,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2950,13 +2950,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>41.16673120696609</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -2965,10 +2965,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3004,10 +3004,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>23.08134457786378</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3187,25 +3187,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>42.71572132711237</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3263,10 +3263,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634797</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3427,19 +3427,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428169</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3487,7 +3487,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>179.2499669408062</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3563,7 +3563,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3667,16 +3667,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>83.06560892428168</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3718,7 +3718,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>149.2607556244443</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3901,22 +3901,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3958,7 +3958,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>19.51567534720864</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4138,7 +4138,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4147,10 +4147,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2230.937844028709</v>
+        <v>1488.072371616105</v>
       </c>
       <c r="C2" t="n">
-        <v>1861.975327088297</v>
+        <v>1119.109854675694</v>
       </c>
       <c r="D2" t="n">
-        <v>1503.709628481547</v>
+        <v>905.2831725805665</v>
       </c>
       <c r="E2" t="n">
-        <v>1117.921375883303</v>
+        <v>519.4949199823222</v>
       </c>
       <c r="F2" t="n">
-        <v>706.9354710936952</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="G2" t="n">
-        <v>291.8630209386917</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.605821609171</v>
+        <v>3189.039481192846</v>
       </c>
       <c r="U2" t="n">
-        <v>3325.605821609171</v>
+        <v>2935.509004466682</v>
       </c>
       <c r="V2" t="n">
-        <v>2994.542934265601</v>
+        <v>2604.446117123111</v>
       </c>
       <c r="W2" t="n">
-        <v>2994.542934265601</v>
+        <v>2251.677461852997</v>
       </c>
       <c r="X2" t="n">
-        <v>2621.077176004521</v>
+        <v>1878.211703591917</v>
       </c>
       <c r="Y2" t="n">
-        <v>2230.937844028709</v>
+        <v>1488.072371616105</v>
       </c>
     </row>
     <row r="3">
@@ -4383,28 +4383,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F3" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927785</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
         <v>160.1893859228007</v>
@@ -4413,34 +4413,34 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4449,10 +4449,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>213.4020639300938</v>
+        <v>625.8811108217975</v>
       </c>
       <c r="C4" t="n">
-        <v>213.4020639300938</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="D4" t="n">
-        <v>213.4020639300938</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="E4" t="n">
-        <v>213.4020639300938</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218343</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218343</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218343</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4510,28 +4510,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1908.841218692493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1717.155334519319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1495.388719088845</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1206.285852214489</v>
+        <v>1169.982769064645</v>
       </c>
       <c r="V4" t="n">
-        <v>951.6013640086019</v>
+        <v>915.2982808587581</v>
       </c>
       <c r="W4" t="n">
-        <v>662.1841939716412</v>
+        <v>625.8811108217975</v>
       </c>
       <c r="X4" t="n">
-        <v>434.1946430736239</v>
+        <v>625.8811108217975</v>
       </c>
       <c r="Y4" t="n">
-        <v>213.4020639300938</v>
+        <v>625.8811108217975</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1944.904841306683</v>
+        <v>1661.795585684488</v>
       </c>
       <c r="C5" t="n">
-        <v>1575.942324366272</v>
+        <v>1292.833068744076</v>
       </c>
       <c r="D5" t="n">
-        <v>1575.942324366272</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E5" t="n">
-        <v>1190.154071768027</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F5" t="n">
-        <v>779.1681669784198</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3095.109771607697</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U5" t="n">
-        <v>3095.109771607697</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>3095.109771607697</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W5" t="n">
-        <v>3095.109771607697</v>
+        <v>2403.038273524209</v>
       </c>
       <c r="X5" t="n">
-        <v>2721.644013346617</v>
+        <v>2051.9349176603</v>
       </c>
       <c r="Y5" t="n">
-        <v>2331.504681370805</v>
+        <v>1661.795585684488</v>
       </c>
     </row>
     <row r="6">
@@ -4620,31 +4620,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031479</v>
@@ -4677,7 +4677,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>624.6477645191717</v>
+        <v>686.126594326469</v>
       </c>
       <c r="C7" t="n">
-        <v>624.6477645191717</v>
+        <v>517.1904113985621</v>
       </c>
       <c r="D7" t="n">
-        <v>624.6477645191717</v>
+        <v>517.1904113985621</v>
       </c>
       <c r="E7" t="n">
-        <v>624.6477645191717</v>
+        <v>369.277317816169</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4759,16 +4759,16 @@
         <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>1073.429894560719</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="W7" t="n">
-        <v>1073.429894560719</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="X7" t="n">
-        <v>845.4403436627018</v>
+        <v>906.9191734699991</v>
       </c>
       <c r="Y7" t="n">
-        <v>624.6477645191717</v>
+        <v>686.126594326469</v>
       </c>
     </row>
     <row r="8">
@@ -4778,40 +4778,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2175.400891308157</v>
+        <v>1136.824033225875</v>
       </c>
       <c r="C8" t="n">
-        <v>1806.438374367746</v>
+        <v>767.8615162854633</v>
       </c>
       <c r="D8" t="n">
-        <v>1448.172675760995</v>
+        <v>767.8615162854633</v>
       </c>
       <c r="E8" t="n">
-        <v>1062.384423162751</v>
+        <v>382.0732636872191</v>
       </c>
       <c r="F8" t="n">
-        <v>651.3985183731436</v>
+        <v>375.1277629380156</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4832,22 +4832,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609171</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V8" t="n">
-        <v>3325.605821609171</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W8" t="n">
-        <v>3325.605821609171</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X8" t="n">
-        <v>2952.140063348091</v>
+        <v>1808.800296392464</v>
       </c>
       <c r="Y8" t="n">
-        <v>2562.000731372279</v>
+        <v>1523.423873289997</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4857,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
@@ -4887,34 +4887,34 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4923,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,7 +4936,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>848.0708164780106</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="C10" t="n">
         <v>679.1346335501037</v>
@@ -4993,19 +4993,19 @@
         <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1927.294548088493</v>
+        <v>1672.018421834499</v>
       </c>
       <c r="V10" t="n">
-        <v>1767.918581386758</v>
+        <v>1417.333933628612</v>
       </c>
       <c r="W10" t="n">
-        <v>1478.501411349798</v>
+        <v>1127.916763591651</v>
       </c>
       <c r="X10" t="n">
-        <v>1250.51186045178</v>
+        <v>899.9272126936338</v>
       </c>
       <c r="Y10" t="n">
-        <v>1029.71928130825</v>
+        <v>679.1346335501037</v>
       </c>
     </row>
     <row r="11">
@@ -5033,40 +5033,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474784</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,28 +5112,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>251.562654109227</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>746.8882603249857</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
         <v>2319.799627685893</v>
@@ -5173,52 +5173,52 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>917.5010142287015</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
@@ -5230,19 +5230,19 @@
         <v>2160.315914855604</v>
       </c>
       <c r="U13" t="n">
-        <v>2018.514925172275</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V13" t="n">
-        <v>2018.514925172275</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135315</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237297</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093767</v>
+        <v>1099.149479058937</v>
       </c>
     </row>
     <row r="14">
@@ -5273,28 +5273,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400703</v>
+        <v>741.8431516380874</v>
       </c>
       <c r="C16" t="n">
-        <v>383.4415877881669</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="D16" t="n">
-        <v>383.4415877881669</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E16" t="n">
-        <v>235.5284942057738</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>923.4916164683272</v>
       </c>
     </row>
     <row r="17">
@@ -5495,7 +5495,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
@@ -5510,13 +5510,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>280.8495004245705</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>874.8686257536381</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C19" t="n">
-        <v>705.9324428257312</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133954</v>
+        <v>376.4492432300688</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>376.4492432300688</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>229.5592957321575</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>229.5592957321575</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5695,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5744,28 +5744,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,28 +5826,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438171</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
         <v>2516.421633107662</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.8993044876693</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>411.9631215597624</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D22" t="n">
-        <v>411.9631215597624</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E22" t="n">
-        <v>411.9631215597624</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5908,52 +5908,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5975,40 +5975,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6063,25 +6063,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438171</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P24" t="n">
         <v>2283.159972732779</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121648</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121648</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121648</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
@@ -6145,52 +6145,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>957.0223605197863</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>736.2297813762561</v>
       </c>
     </row>
     <row r="26">
@@ -6215,58 +6215,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6297,10 +6297,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
         <v>245.2306927803937</v>
@@ -6309,22 +6309,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400739</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908938</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908938</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>379.6759351444937</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>212.4798358593736</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038369</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.140538179777</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910812</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.56011257082</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279805</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853364</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580263</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832666</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.06254548757</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510511</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854709</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648822</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611861</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138438</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703137</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168625</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192684</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075825</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.61155333239</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014781</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>779.6143379232838</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C31" t="n">
-        <v>779.6143379232838</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232838</v>
+        <v>449.4852666057155</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6652,19 +6652,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1954.146591037919</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1699.462102832032</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W31" t="n">
-        <v>1410.044932795071</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X31" t="n">
-        <v>1182.055381897054</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y31" t="n">
-        <v>961.2628027535235</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="32">
@@ -6686,22 +6686,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2148.04349261611</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6835,22 +6835,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6929,7 +6929,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192599</v>
@@ -6938,16 +6938,16 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.422291068009</v>
@@ -6962,25 +6962,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7008,22 +7008,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N36" t="n">
         <v>1307.627092998424</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7135,10 +7135,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="38">
@@ -7169,7 +7169,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
@@ -7187,7 +7187,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7211,10 +7211,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1815.886107649656</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>866.4638174991043</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1604.663117577612</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1315.245947540652</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1087.256396642634</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>866.4638174991043</v>
       </c>
     </row>
     <row r="41">
@@ -7403,7 +7403,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192599</v>
@@ -7415,16 +7415,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7491,16 +7491,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>139.234765840794</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O42" t="n">
         <v>1859.536823237711</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>783.5579673960132</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>614.6217844681063</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7606,13 +7606,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1413.9885622678</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1185.999011369783</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>965.2064322262529</v>
       </c>
     </row>
     <row r="44">
@@ -7634,34 +7634,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,22 +7722,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O45" t="n">
         <v>1859.536823237711</v>
@@ -7786,16 +7786,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -8052,7 +8052,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.882938249764265e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -8289,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>2.167155344068306e-13</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22544,13 +22544,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>142.9946263465071</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -22559,10 +22559,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>23.30832105933258</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22595,19 +22595,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>13.83034628220778</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23428,7 +23428,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23470,10 +23470,10 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>145.8014946027485</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>38.13892827624346</v>
+        <v>39.11615722870332</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23662,7 +23662,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23738,7 +23738,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23896,19 +23896,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>87.17534280744565</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>110.0033420516639</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24127,25 +24127,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>44.73700564187206</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>136.2749052347514</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856666</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24367,7 +24367,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182048</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24376,13 +24376,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>57.22910392194174</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>40.32043864788574</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,10 +24598,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>57.22910392193953</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24610,16 +24610,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>104.0840080815017</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24838,13 +24838,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>105.2672314396031</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24892,10 +24892,10 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>263.1031298113804</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25075,25 +25075,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>124.5310997715155</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25315,19 +25315,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>57.2291039219422</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>46.45968844823099</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25555,16 +25555,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>62.35543909864957</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25606,7 +25606,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>102.8768876993837</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25846,7 +25846,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>267.0073229893824</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26026,7 +26026,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26035,10 +26035,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>980188.8422234729</v>
+        <v>980188.842223473</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1059049.683037205</v>
+        <v>1059049.683037206</v>
       </c>
     </row>
     <row r="6">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1059049.683037206</v>
+        <v>1059049.683037205</v>
       </c>
     </row>
     <row r="10">
@@ -26311,40 +26311,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>335917.9865019032</v>
+        <v>335917.9865019034</v>
       </c>
       <c r="C2" t="n">
-        <v>369468.7964389279</v>
+        <v>369468.7964389278</v>
       </c>
       <c r="D2" t="n">
         <v>369468.7964389276</v>
       </c>
       <c r="E2" t="n">
+        <v>363215.9698605027</v>
+      </c>
+      <c r="F2" t="n">
+        <v>363215.9698605026</v>
+      </c>
+      <c r="G2" t="n">
+        <v>363215.9698605026</v>
+      </c>
+      <c r="H2" t="n">
+        <v>363215.9698605026</v>
+      </c>
+      <c r="I2" t="n">
         <v>363215.9698605028</v>
       </c>
-      <c r="F2" t="n">
+      <c r="J2" t="n">
+        <v>363215.9698605026</v>
+      </c>
+      <c r="K2" t="n">
+        <v>363215.9698605028</v>
+      </c>
+      <c r="L2" t="n">
+        <v>363215.9698605025</v>
+      </c>
+      <c r="M2" t="n">
         <v>363215.9698605027</v>
-      </c>
-      <c r="G2" t="n">
-        <v>363215.9698605028</v>
-      </c>
-      <c r="H2" t="n">
-        <v>363215.9698605028</v>
-      </c>
-      <c r="I2" t="n">
-        <v>363215.9698605026</v>
-      </c>
-      <c r="J2" t="n">
-        <v>363215.9698605027</v>
-      </c>
-      <c r="K2" t="n">
-        <v>363215.9698605026</v>
-      </c>
-      <c r="L2" t="n">
-        <v>363215.9698605028</v>
-      </c>
-      <c r="M2" t="n">
-        <v>363215.9698605025</v>
       </c>
       <c r="N2" t="n">
         <v>363215.9698605028</v>
@@ -26353,7 +26353,7 @@
         <v>363215.9698605026</v>
       </c>
       <c r="P2" t="n">
-        <v>363215.9698605028</v>
+        <v>363215.9698605026</v>
       </c>
     </row>
     <row r="3">
@@ -26372,22 +26372,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073554</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>5.189062972413953e-11</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972773</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,10 +26396,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551175</v>
+        <v>85055.0279355119</v>
       </c>
       <c r="N3" t="n">
-        <v>5.189062972413953e-11</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>47189.23934546713</v>
+        <v>47189.23934546733</v>
       </c>
       <c r="C4" t="n">
-        <v>89744.12305813246</v>
+        <v>89744.12305813252</v>
       </c>
       <c r="D4" t="n">
         <v>89744.12305813248</v>
@@ -26436,22 +26436,22 @@
         <v>10557.08828678121</v>
       </c>
       <c r="I4" t="n">
-        <v>10557.08828678131</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="J4" t="n">
-        <v>10557.08828678131</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="K4" t="n">
-        <v>10557.08828678129</v>
+        <v>10557.08828678123</v>
       </c>
       <c r="L4" t="n">
         <v>10557.08828678121</v>
       </c>
       <c r="M4" t="n">
-        <v>10557.08828678125</v>
+        <v>10557.08828678123</v>
       </c>
       <c r="N4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678122</v>
       </c>
       <c r="O4" t="n">
         <v>10557.08828678121</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1147949.93913255</v>
+        <v>-1148136.332521089</v>
       </c>
       <c r="C6" t="n">
-        <v>171790.7328194021</v>
+        <v>171790.732819402</v>
       </c>
       <c r="D6" t="n">
         <v>171790.7328194018</v>
       </c>
       <c r="E6" t="n">
-        <v>-73876.11005754073</v>
+        <v>-73910.84798297673</v>
       </c>
       <c r="F6" t="n">
-        <v>251536.3517498143</v>
+        <v>251501.6138243785</v>
       </c>
       <c r="G6" t="n">
-        <v>251536.3517498142</v>
+        <v>251501.6138243785</v>
       </c>
       <c r="H6" t="n">
-        <v>251536.3517498144</v>
+        <v>251501.6138243788</v>
       </c>
       <c r="I6" t="n">
-        <v>251536.3517498141</v>
+        <v>251501.6138243788</v>
       </c>
       <c r="J6" t="n">
-        <v>34005.149352537</v>
+        <v>33970.41142710115</v>
       </c>
       <c r="K6" t="n">
-        <v>251536.3517498142</v>
+        <v>251501.6138243787</v>
       </c>
       <c r="L6" t="n">
-        <v>251536.3517498145</v>
+        <v>251501.6138243785</v>
       </c>
       <c r="M6" t="n">
-        <v>166481.3238143024</v>
+        <v>166446.5858888667</v>
       </c>
       <c r="N6" t="n">
-        <v>251536.3517498144</v>
+        <v>251501.6138243788</v>
       </c>
       <c r="O6" t="n">
-        <v>251536.3517498142</v>
+        <v>251501.6138243786</v>
       </c>
       <c r="P6" t="n">
-        <v>251536.3517498145</v>
+        <v>251501.6138243786</v>
       </c>
     </row>
   </sheetData>
@@ -26704,13 +26704,13 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>6.486328715517441e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.486328715517441e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>6.486328715517441e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26926,7 +26926,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>6.486328715517441e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26941,7 +26941,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>6.486328715517441e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26966,13 +26966,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.306832697356</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27163,7 +27163,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>6.486328715517441e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27394,7 +27394,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>89.77897763947064</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27430,7 +27430,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>177.9050549156352</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27537,7 +27537,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27552,10 +27552,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>70.66335656800749</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27591,7 +27591,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>34.72330424966219</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27600,10 +27600,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,16 +27613,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,10 +27631,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,19 +27667,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>84.91464242633596</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>22.13877837319848</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27774,25 +27774,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>11.70930691181374</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27831,7 +27831,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>191.2736018146038</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27856,22 +27856,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>168.0688818921493</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,22 +27904,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>103.7152797846108</v>
       </c>
     </row>
     <row r="9">
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28065,10 +28065,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>33.48847321415872</v>
       </c>
       <c r="V10" t="n">
-        <v>94.3554362891108</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28141,7 +28141,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>-6.058123835109475e-13</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28245,7 +28245,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>4.147674796210292e-12</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28393,7 +28393,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="15">
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28731,7 +28731,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>-9.426533627750662e-13</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -28858,7 +28858,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -29199,7 +29199,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>7.576031939724371e-12</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -29332,13 +29332,13 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>6.486328715517441e-14</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>6.486328715517441e-14</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -29457,7 +29457,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>2.621035993608063e-12</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>6.486328715517441e-14</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>6.486328715517441e-14</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>6.486328715517441e-14</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>6.486328715517441e-14</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>6.486328715517441e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -29983,10 +29983,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -30283,7 +30283,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>297.1808238847177</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>369.1789913099994</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>465.7451325200306</v>
+        <v>366.8427442359099</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32309,13 +32309,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>326.7634969305192</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473073</v>
@@ -32324,19 +32324,19 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>193.964997009853</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742439</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>637.8521160493917</v>
       </c>
       <c r="M21" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
         <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>401.521336481369</v>
       </c>
       <c r="L24" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33029,7 +33029,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>194.5189324111251</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33038,16 +33038,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,7 +33257,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33272,19 +33272,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>750.6021172789107</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33415,7 +33415,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33494,10 +33494,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
@@ -33509,19 +33509,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>556.532545233504</v>
       </c>
       <c r="O33" t="n">
-        <v>551.7051287319853</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,7 +33731,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>126.8376266666667</v>
@@ -33743,10 +33743,10 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>752.2150000824579</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
@@ -33913,7 +33913,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33968,7 +33968,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>126.8376266666667</v>
@@ -33977,25 +33977,25 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>651.5998000366021</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34211,19 +34211,19 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>183.7183104822601</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214698</v>
@@ -34387,7 +34387,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34442,25 +34442,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>332.1692388321076</v>
       </c>
       <c r="P45" t="n">
         <v>561.8765786214698</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,16 +35483,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>159.3393849103587</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
@@ -35501,13 +35501,13 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>226.582746865555</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35729,25 +35729,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>334.4034204366973</v>
+        <v>235.5010321525766</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35957,13 +35957,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>188.9220579561602</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.3288951674331</v>
@@ -35972,19 +35972,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>499.2977362695175</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>263.67989750701</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36677,7 +36677,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>55.9645526312509</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36686,16 +36686,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36753,7 +36753,7 @@
         <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096376</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
         <v>394.3420143191314</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36920,19 +36920,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>619.2604051955774</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37063,7 +37063,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37142,10 +37142,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
@@ -37157,19 +37157,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>425.1908331501707</v>
       </c>
       <c r="O33" t="n">
-        <v>409.1088842875408</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -37391,10 +37391,10 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402482</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>620.8732879991246</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
@@ -37561,7 +37561,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -37625,25 +37625,25 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>509.0035555921577</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37859,19 +37859,19 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>45.87687150790109</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071395</v>
@@ -38035,7 +38035,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38090,25 +38090,25 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="P45" t="n">
         <v>427.9021712071395</v>
